--- a/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
+++ b/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a75fb4939bef0c74/桌面/2023秋硬件综合训练课设资料发布包/cpu21-riscv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{28D0AF84-3A1B-4246-8BE7-C73B84408BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E90E279-A582-4061-95D2-490B905B696F}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{28D0AF84-3A1B-4246-8BE7-C73B84408BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{747EEB16-0820-494E-AD93-220F65E31DEA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="控制信号表达式生成" sheetId="2" r:id="rId1"/>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="128">
   <si>
     <t>#</t>
   </si>
@@ -2074,6 +2074,14 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -2337,27 +2345,27 @@
   </sheetPr>
   <dimension ref="A1:AX63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AI58" sqref="AI58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="18" customWidth="1"/>
-    <col min="2" max="3" width="9.44140625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="18" customWidth="1"/>
-    <col min="5" max="7" width="4.5546875" style="18" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="4.21875" style="18" hidden="1" customWidth="1"/>
-    <col min="9" max="14" width="4.5546875" style="18" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="23.44140625" style="18" customWidth="1"/>
-    <col min="16" max="19" width="4.5546875" style="18" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="18" customWidth="1"/>
+    <col min="2" max="3" width="9.5" style="18" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="18" customWidth="1"/>
+    <col min="5" max="7" width="4.5" style="18" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="4.25" style="18" hidden="1" customWidth="1"/>
+    <col min="9" max="14" width="4.5" style="18" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="23.5" style="18" customWidth="1"/>
+    <col min="16" max="19" width="4.5" style="18" customWidth="1"/>
     <col min="20" max="22" width="9" customWidth="1"/>
     <col min="32" max="35" width="9" style="19" customWidth="1"/>
     <col min="36" max="42" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
@@ -2475,9 +2483,9 @@
         <f>真值表!AD1</f>
         <v>jalr</v>
       </c>
-      <c r="AD1" s="23" t="str">
+      <c r="AD1" s="23">
         <f>真值表!AE1</f>
-        <v>SRL</v>
+        <v>0</v>
       </c>
       <c r="AE1" s="23" t="str">
         <f>真值表!AF1</f>
@@ -2512,7 +2520,7 @@
         <v>XXX</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="str">
         <f>IF(ISBLANK(真值表!B2),"",真值表!B2)</f>
         <v>add</v>
@@ -2666,7 +2674,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="str">
         <f>IF(ISBLANK(真值表!B3),"",真值表!B3)</f>
         <v>sub</v>
@@ -2820,7 +2828,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="str">
         <f>IF(ISBLANK(真值表!B4),"",真值表!B4)</f>
         <v>and</v>
@@ -2974,7 +2982,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="str">
         <f>IF(ISBLANK(真值表!B5),"",真值表!B5)</f>
         <v>or</v>
@@ -3128,7 +3136,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="str">
         <f>IF(ISBLANK(真值表!B6),"",真值表!B6)</f>
         <v>slt</v>
@@ -3282,7 +3290,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="50" t="str">
         <f>IF(ISBLANK(真值表!B7),"",真值表!B7)</f>
         <v>sltu</v>
@@ -3436,7 +3444,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="str">
         <f>IF(ISBLANK(真值表!B8),"",真值表!B8)</f>
         <v>addi</v>
@@ -3590,7 +3598,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="50" t="str">
         <f>IF(ISBLANK(真值表!B9),"",真值表!B9)</f>
         <v>andi</v>
@@ -3744,7 +3752,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="str">
         <f>IF(ISBLANK(真值表!B10),"",真值表!B10)</f>
         <v>ori</v>
@@ -3898,7 +3906,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="str">
         <f>IF(ISBLANK(真值表!B11),"",真值表!B11)</f>
         <v>xori</v>
@@ -4052,7 +4060,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="str">
         <f>IF(ISBLANK(真值表!B12),"",真值表!B12)</f>
         <v>slti</v>
@@ -4206,7 +4214,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="50" t="str">
         <f>IF(ISBLANK(真值表!B13),"",真值表!B13)</f>
         <v>slli</v>
@@ -4360,7 +4368,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="str">
         <f>IF(ISBLANK(真值表!B14),"",真值表!B14)</f>
         <v>srli</v>
@@ -4514,7 +4522,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="50" t="str">
         <f>IF(ISBLANK(真值表!B15),"",真值表!B15)</f>
         <v>srai</v>
@@ -4668,7 +4676,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="str">
         <f>IF(ISBLANK(真值表!B16),"",真值表!B16)</f>
         <v>lw</v>
@@ -4822,7 +4830,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="50" t="str">
         <f>IF(ISBLANK(真值表!B17),"",真值表!B17)</f>
         <v>sw</v>
@@ -4976,7 +4984,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="str">
         <f>IF(ISBLANK(真值表!B18),"",真值表!B18)</f>
         <v>ecall</v>
@@ -5111,11 +5119,11 @@
       </c>
       <c r="AH18" s="24" t="str">
         <f>IF(真值表!AI18=1,$O18&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI18" s="24" t="str">
         <f>IF(真值表!AJ18=1,$O18&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AJ18" s="24" t="str">
         <f>IF(真值表!AK18=1,$O18&amp;"+","")</f>
@@ -5130,7 +5138,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="50" t="str">
         <f>IF(ISBLANK(真值表!B19),"",真值表!B19)</f>
         <v>beq</v>
@@ -5284,7 +5292,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="str">
         <f>IF(ISBLANK(真值表!B20),"",真值表!B20)</f>
         <v>bne</v>
@@ -5438,7 +5446,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="50" t="str">
         <f>IF(ISBLANK(真值表!B21),"",真值表!B21)</f>
         <v>jal</v>
@@ -5592,7 +5600,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="str">
         <f>IF(ISBLANK(真值表!B22),"",真值表!B22)</f>
         <v>jalr</v>
@@ -5746,7 +5754,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="50" t="str">
         <f>IF(ISBLANK(真值表!B23),"",真值表!B23)</f>
         <v>CSRRSI</v>
@@ -5900,7 +5908,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="str">
         <f>IF(ISBLANK(真值表!B24),"",真值表!B24)</f>
         <v>CSRRCI</v>
@@ -6054,7 +6062,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="50" t="str">
         <f>IF(ISBLANK(真值表!B25),"",真值表!B25)</f>
         <v>URET</v>
@@ -6208,7 +6216,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="str">
         <f>IF(ISBLANK(真值表!B26),"",真值表!B26)</f>
         <v>SRL</v>
@@ -6327,7 +6335,7 @@
       </c>
       <c r="AD26" s="24" t="str">
         <f>IF(真值表!AE26=1,$O26&amp;"+","")</f>
-        <v>~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AE26" s="24" t="str">
         <f>IF(真值表!AF26=1,$O26&amp;"+","")</f>
@@ -6362,7 +6370,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="50" t="str">
         <f>IF(ISBLANK(真值表!B27),"",真值表!B27)</f>
         <v>LUI</v>
@@ -6516,7 +6524,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="str">
         <f>IF(ISBLANK(真值表!B28),"",真值表!B28)</f>
         <v>SH</v>
@@ -6670,7 +6678,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="50" t="str">
         <f>IF(ISBLANK(真值表!B29),"",真值表!B29)</f>
         <v>BLTU</v>
@@ -6824,7 +6832,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="str">
         <f>IF(ISBLANK(真值表!B30),"",真值表!B30)</f>
         <v/>
@@ -6978,7 +6986,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="50" t="str">
         <f>IF(ISBLANK(真值表!B31),"",真值表!B31)</f>
         <v/>
@@ -7132,7 +7140,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="str">
         <f>IF(ISBLANK(真值表!B32),"",真值表!B32)</f>
         <v/>
@@ -7286,7 +7294,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="50" t="str">
         <f>IF(ISBLANK(真值表!B33),"",真值表!B33)</f>
         <v/>
@@ -7440,7 +7448,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="str">
         <f>IF(ISBLANK(真值表!B34),"",真值表!B34)</f>
         <v/>
@@ -7594,7 +7602,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="50" t="str">
         <f>IF(ISBLANK(真值表!B35),"",真值表!B35)</f>
         <v/>
@@ -7748,7 +7756,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="str">
         <f>IF(ISBLANK(真值表!B36),"",真值表!B36)</f>
         <v/>
@@ -7902,7 +7910,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="50" t="str">
         <f>IF(ISBLANK(真值表!B37),"",真值表!B37)</f>
         <v/>
@@ -8056,7 +8064,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="31" t="str">
         <f>IF(ISBLANK(真值表!B38),"",真值表!B38)</f>
         <v/>
@@ -8210,7 +8218,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="50" t="str">
         <f>IF(ISBLANK(真值表!B39),"",真值表!B39)</f>
         <v/>
@@ -8364,7 +8372,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="str">
         <f>IF(ISBLANK(真值表!B40),"",真值表!B40)</f>
         <v/>
@@ -8518,7 +8526,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="50" t="str">
         <f>IF(ISBLANK(真值表!B41),"",真值表!B41)</f>
         <v/>
@@ -8672,7 +8680,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="31" t="str">
         <f>IF(ISBLANK(真值表!B42),"",真值表!B42)</f>
         <v/>
@@ -8826,7 +8834,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="50" t="str">
         <f>IF(ISBLANK(真值表!B43),"",真值表!B43)</f>
         <v/>
@@ -8980,7 +8988,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="31" t="str">
         <f>IF(ISBLANK(真值表!B44),"",真值表!B44)</f>
         <v/>
@@ -9134,7 +9142,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="50" t="str">
         <f>IF(ISBLANK(真值表!B45),"",真值表!B45)</f>
         <v/>
@@ -9288,7 +9296,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="31" t="str">
         <f>IF(ISBLANK(真值表!B46),"",真值表!B46)</f>
         <v/>
@@ -9442,7 +9450,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="50" t="str">
         <f>IF(ISBLANK(真值表!B47),"",真值表!B47)</f>
         <v/>
@@ -9596,7 +9604,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="31" t="str">
         <f>IF(ISBLANK(真值表!B48),"",真值表!B48)</f>
         <v/>
@@ -9750,7 +9758,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="50" t="str">
         <f>IF(ISBLANK(真值表!B49),"",真值表!B49)</f>
         <v/>
@@ -9904,7 +9912,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="31" t="str">
         <f>IF(ISBLANK(真值表!B50),"",真值表!B50)</f>
         <v/>
@@ -10058,7 +10066,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="50" t="str">
         <f>IF(ISBLANK(真值表!B51),"",真值表!B51)</f>
         <v/>
@@ -10212,7 +10220,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="31" t="str">
         <f>IF(ISBLANK(真值表!B52),"",真值表!B52)</f>
         <v/>
@@ -10366,7 +10374,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="50" t="str">
         <f>IF(ISBLANK(真值表!B53),"",真值表!B53)</f>
         <v/>
@@ -10520,7 +10528,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="31" t="str">
         <f>IF(ISBLANK(真值表!B54),"",真值表!B54)</f>
         <v/>
@@ -10674,7 +10682,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="50" t="str">
         <f>IF(ISBLANK(真值表!B55),"",真值表!B55)</f>
         <v/>
@@ -10828,7 +10836,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="31" t="str">
         <f>IF(ISBLANK(真值表!B56),"",真值表!B56)</f>
         <v/>
@@ -10982,7 +10990,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="50" t="str">
         <f>IF(ISBLANK(真值表!B57),"",真值表!B57)</f>
         <v/>
@@ -11136,7 +11144,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:50" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="71" t="s">
         <v>81</v>
       </c>
@@ -11212,7 +11220,7 @@
       </c>
       <c r="AD58" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
+        <v/>
       </c>
       <c r="AE58" s="33" t="str">
         <f t="shared" si="2"/>
@@ -11228,11 +11236,11 @@
       </c>
       <c r="AH58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~OP6&amp; OP5&amp; OP4&amp;~OP3&amp; OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~OP6&amp; OP5&amp; OP4&amp;~OP3&amp; OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="AI58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="AJ58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -11247,7 +11255,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.2">
       <c r="P59" t="str">
         <f>CONCATENATE(P2,P3,P4,P5,P6,P7,P8,P9,P10,P11,P12,P13,P14,P15,P16,P17,P18,P19,P20,P21,P22,P23,P24,P25,P26,P27,P28,P29,P30,P31,P32,P33,P34,P35,P36,P37,P38,P39,P40,P41,P42,P43,P44,P45,P46,P47,P48,P49,P50,P51,P52,P53,P54,P55,P56,P57,
 )</f>
@@ -11312,7 +11320,7 @@
       </c>
       <c r="AD59" t="str">
         <f t="shared" si="3"/>
-        <v>~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AE59" t="str">
         <f t="shared" si="3"/>
@@ -11328,11 +11336,11 @@
       </c>
       <c r="AH59" t="str">
         <f t="shared" si="3"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~OP6&amp; OP5&amp; OP4&amp;~OP3&amp; OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~OP6&amp; OP5&amp; OP4&amp;~OP3&amp; OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI59" t="str">
         <f t="shared" si="3"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AJ59" t="str">
         <f t="shared" si="3"/>
@@ -11395,7 +11403,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:50" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="P61" s="74" t="s">
         <v>61</v>
       </c>
@@ -11415,7 +11423,7 @@
       <c r="AD61" s="18"/>
       <c r="AE61" s="18"/>
     </row>
-    <row r="63" spans="1:50" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:50" ht="15" x14ac:dyDescent="0.2">
       <c r="Q63" s="34" t="s">
         <v>109</v>
       </c>
@@ -11474,30 +11482,30 @@
   </sheetPr>
   <dimension ref="A1:AN62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK3" sqref="AK3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="18" customWidth="1"/>
-    <col min="3" max="4" width="10.44140625" style="26" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="26" customWidth="1"/>
-    <col min="6" max="15" width="4.44140625" style="26" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.77734375" style="26" customWidth="1"/>
-    <col min="17" max="20" width="3.44140625" style="26" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="10.109375" style="26" customWidth="1"/>
-    <col min="22" max="22" width="9.109375" style="26" customWidth="1"/>
-    <col min="23" max="23" width="10.44140625" style="26" customWidth="1"/>
-    <col min="24" max="24" width="9.44140625" style="26" customWidth="1"/>
-    <col min="25" max="26" width="9.109375" style="26" customWidth="1"/>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
+    <col min="3" max="4" width="10.5" style="26" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="26" customWidth="1"/>
+    <col min="6" max="15" width="4.5" style="26" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.75" style="26" customWidth="1"/>
+    <col min="17" max="20" width="3.5" style="26" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="10.125" style="26" customWidth="1"/>
+    <col min="22" max="22" width="9.125" style="26" customWidth="1"/>
+    <col min="23" max="23" width="10.5" style="26" customWidth="1"/>
+    <col min="24" max="24" width="9.5" style="26" customWidth="1"/>
+    <col min="25" max="26" width="9.125" style="26" customWidth="1"/>
     <col min="27" max="30" width="9" style="26" customWidth="1"/>
     <col min="31" max="32" width="9" style="27" customWidth="1"/>
     <col min="33" max="39" width="9" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="17" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" s="17" customFormat="1" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -11588,9 +11596,7 @@
       <c r="AD1" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="AE1" s="25" t="s">
-        <v>121</v>
-      </c>
+      <c r="AE1" s="25"/>
       <c r="AF1" s="25" t="s">
         <v>127</v>
       </c>
@@ -11617,7 +11623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="35">
         <v>1</v>
       </c>
@@ -11718,7 +11724,7 @@
       <c r="AL2" s="36"/>
       <c r="AM2" s="36"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" s="57">
         <v>2</v>
       </c>
@@ -11819,7 +11825,7 @@
       <c r="AL3" s="58"/>
       <c r="AM3" s="58"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" s="35">
         <v>3</v>
       </c>
@@ -11920,7 +11926,7 @@
       <c r="AL4" s="36"/>
       <c r="AM4" s="36"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" s="57">
         <v>4</v>
       </c>
@@ -12021,7 +12027,7 @@
       <c r="AL5" s="58"/>
       <c r="AM5" s="58"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" s="35">
         <v>5</v>
       </c>
@@ -12122,7 +12128,7 @@
       <c r="AL6" s="36"/>
       <c r="AM6" s="36"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" s="57">
         <v>6</v>
       </c>
@@ -12223,7 +12229,7 @@
       <c r="AL7" s="58"/>
       <c r="AM7" s="58"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8" s="35">
         <v>7</v>
       </c>
@@ -12322,7 +12328,7 @@
       <c r="AL8" s="36"/>
       <c r="AM8" s="36"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" s="57">
         <v>8</v>
       </c>
@@ -12421,7 +12427,7 @@
       <c r="AL9" s="58"/>
       <c r="AM9" s="58"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="35">
         <v>9</v>
       </c>
@@ -12520,7 +12526,7 @@
       <c r="AL10" s="36"/>
       <c r="AM10" s="36"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="57">
         <v>10</v>
       </c>
@@ -12619,7 +12625,7 @@
       <c r="AL11" s="58"/>
       <c r="AM11" s="58"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="35">
         <v>11</v>
       </c>
@@ -12718,7 +12724,7 @@
       <c r="AL12" s="36"/>
       <c r="AM12" s="36"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="57">
         <v>12</v>
       </c>
@@ -12819,7 +12825,7 @@
       <c r="AL13" s="58"/>
       <c r="AM13" s="58"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="35">
         <v>13</v>
       </c>
@@ -12920,7 +12926,7 @@
       <c r="AL14" s="36"/>
       <c r="AM14" s="36"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="57">
         <v>14</v>
       </c>
@@ -13021,7 +13027,7 @@
       <c r="AL15" s="58"/>
       <c r="AM15" s="58"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="35">
         <v>15</v>
       </c>
@@ -13122,7 +13128,7 @@
       <c r="AL16" s="36"/>
       <c r="AM16" s="36"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="57">
         <v>16</v>
       </c>
@@ -13225,7 +13231,7 @@
       <c r="AL17" s="58"/>
       <c r="AM17" s="58"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="35">
         <v>17</v>
       </c>
@@ -13314,13 +13320,17 @@
       <c r="AF18" s="31"/>
       <c r="AG18" s="36"/>
       <c r="AH18" s="36"/>
-      <c r="AI18" s="36"/>
-      <c r="AJ18" s="36"/>
+      <c r="AI18" s="36">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="36">
+        <v>1</v>
+      </c>
       <c r="AK18" s="36"/>
       <c r="AL18" s="36"/>
       <c r="AM18" s="36"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="57">
         <v>18</v>
       </c>
@@ -13419,7 +13429,7 @@
       <c r="AL19" s="58"/>
       <c r="AM19" s="58"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="35">
         <v>19</v>
       </c>
@@ -13520,7 +13530,7 @@
       <c r="AL20" s="36"/>
       <c r="AM20" s="36"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" s="57">
         <v>20</v>
       </c>
@@ -13613,7 +13623,7 @@
       <c r="AL21" s="58"/>
       <c r="AM21" s="58"/>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" s="35">
         <v>21</v>
       </c>
@@ -13714,7 +13724,7 @@
       <c r="AL22" s="36"/>
       <c r="AM22" s="36"/>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="57">
         <v>22</v>
       </c>
@@ -13805,7 +13815,7 @@
       <c r="AL23" s="58"/>
       <c r="AM23" s="58"/>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" s="35">
         <v>23</v>
       </c>
@@ -13896,7 +13906,7 @@
       <c r="AL24" s="36"/>
       <c r="AM24" s="36"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="57">
         <v>24</v>
       </c>
@@ -13989,7 +13999,7 @@
       <c r="AL25" s="58"/>
       <c r="AM25" s="58"/>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" s="35">
         <v>25</v>
       </c>
@@ -14076,9 +14086,7 @@
       <c r="AB26" s="31"/>
       <c r="AC26" s="31"/>
       <c r="AD26" s="31"/>
-      <c r="AE26" s="31">
-        <v>1</v>
-      </c>
+      <c r="AE26" s="31"/>
       <c r="AF26" s="31"/>
       <c r="AG26" s="36"/>
       <c r="AH26" s="36"/>
@@ -14092,7 +14100,7 @@
       <c r="AL26" s="36"/>
       <c r="AM26" s="36"/>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="57">
         <v>26</v>
       </c>
@@ -14189,7 +14197,7 @@
       <c r="AL27" s="58"/>
       <c r="AM27" s="58"/>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="35">
         <v>27</v>
       </c>
@@ -14290,7 +14298,7 @@
       <c r="AL28" s="36"/>
       <c r="AM28" s="36"/>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" s="57">
         <v>28</v>
       </c>
@@ -14389,7 +14397,7 @@
       <c r="AL29" s="58"/>
       <c r="AM29" s="58"/>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" s="35">
         <v>29</v>
       </c>
@@ -14474,7 +14482,7 @@
       <c r="AL30" s="36"/>
       <c r="AM30" s="36"/>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" s="57">
         <v>30</v>
       </c>
@@ -14559,7 +14567,7 @@
       <c r="AL31" s="58"/>
       <c r="AM31" s="58"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" s="35">
         <v>31</v>
       </c>
@@ -14644,7 +14652,7 @@
       <c r="AL32" s="36"/>
       <c r="AM32" s="36"/>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33" s="57">
         <v>32</v>
       </c>
@@ -14729,7 +14737,7 @@
       <c r="AL33" s="58"/>
       <c r="AM33" s="58"/>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" s="35">
         <v>33</v>
       </c>
@@ -14814,7 +14822,7 @@
       <c r="AL34" s="36"/>
       <c r="AM34" s="36"/>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35" s="57">
         <v>34</v>
       </c>
@@ -14899,7 +14907,7 @@
       <c r="AL35" s="58"/>
       <c r="AM35" s="58"/>
     </row>
-    <row r="36" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="35"/>
       <c r="B36" s="31"/>
       <c r="C36" s="37"/>
@@ -14970,7 +14978,7 @@
       <c r="AL36" s="36"/>
       <c r="AM36" s="36"/>
     </row>
-    <row r="37" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="57"/>
       <c r="B37" s="57"/>
       <c r="C37" s="44"/>
@@ -15041,7 +15049,7 @@
       <c r="AL37" s="58"/>
       <c r="AM37" s="58"/>
     </row>
-    <row r="38" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="35"/>
       <c r="B38" s="31"/>
       <c r="C38" s="37"/>
@@ -15112,7 +15120,7 @@
       <c r="AL38" s="36"/>
       <c r="AM38" s="36"/>
     </row>
-    <row r="39" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="57"/>
       <c r="B39" s="57"/>
       <c r="C39" s="44"/>
@@ -15183,7 +15191,7 @@
       <c r="AL39" s="58"/>
       <c r="AM39" s="58"/>
     </row>
-    <row r="40" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="35"/>
       <c r="B40" s="31"/>
       <c r="C40" s="37"/>
@@ -15254,7 +15262,7 @@
       <c r="AL40" s="36"/>
       <c r="AM40" s="36"/>
     </row>
-    <row r="41" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="57"/>
       <c r="B41" s="57"/>
       <c r="C41" s="44"/>
@@ -15325,7 +15333,7 @@
       <c r="AL41" s="58"/>
       <c r="AM41" s="58"/>
     </row>
-    <row r="42" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="35"/>
       <c r="B42" s="31"/>
       <c r="C42" s="37"/>
@@ -15396,7 +15404,7 @@
       <c r="AL42" s="36"/>
       <c r="AM42" s="36"/>
     </row>
-    <row r="43" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="57"/>
       <c r="B43" s="57"/>
       <c r="C43" s="44"/>
@@ -15467,7 +15475,7 @@
       <c r="AL43" s="58"/>
       <c r="AM43" s="58"/>
     </row>
-    <row r="44" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="35"/>
       <c r="B44" s="31"/>
       <c r="C44" s="37"/>
@@ -15538,7 +15546,7 @@
       <c r="AL44" s="36"/>
       <c r="AM44" s="36"/>
     </row>
-    <row r="45" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="57"/>
       <c r="B45" s="57"/>
       <c r="C45" s="44"/>
@@ -15609,7 +15617,7 @@
       <c r="AL45" s="58"/>
       <c r="AM45" s="58"/>
     </row>
-    <row r="46" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="35"/>
       <c r="B46" s="31"/>
       <c r="C46" s="37"/>
@@ -15680,7 +15688,7 @@
       <c r="AL46" s="36"/>
       <c r="AM46" s="36"/>
     </row>
-    <row r="47" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="57"/>
       <c r="B47" s="57"/>
       <c r="C47" s="44"/>
@@ -15751,7 +15759,7 @@
       <c r="AL47" s="58"/>
       <c r="AM47" s="58"/>
     </row>
-    <row r="48" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="35"/>
       <c r="B48" s="31"/>
       <c r="C48" s="37"/>
@@ -15822,7 +15830,7 @@
       <c r="AL48" s="36"/>
       <c r="AM48" s="36"/>
     </row>
-    <row r="49" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="57"/>
       <c r="B49" s="57"/>
       <c r="C49" s="44"/>
@@ -15893,7 +15901,7 @@
       <c r="AL49" s="58"/>
       <c r="AM49" s="58"/>
     </row>
-    <row r="50" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="35"/>
       <c r="B50" s="31"/>
       <c r="C50" s="37"/>
@@ -15964,7 +15972,7 @@
       <c r="AL50" s="36"/>
       <c r="AM50" s="36"/>
     </row>
-    <row r="51" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="57"/>
       <c r="B51" s="57"/>
       <c r="C51" s="44"/>
@@ -16035,7 +16043,7 @@
       <c r="AL51" s="58"/>
       <c r="AM51" s="58"/>
     </row>
-    <row r="52" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="35"/>
       <c r="B52" s="31"/>
       <c r="C52" s="37"/>
@@ -16106,7 +16114,7 @@
       <c r="AL52" s="36"/>
       <c r="AM52" s="36"/>
     </row>
-    <row r="53" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="57"/>
       <c r="B53" s="57"/>
       <c r="C53" s="44"/>
@@ -16177,7 +16185,7 @@
       <c r="AL53" s="58"/>
       <c r="AM53" s="58"/>
     </row>
-    <row r="54" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35"/>
       <c r="B54" s="31"/>
       <c r="C54" s="37"/>
@@ -16248,7 +16256,7 @@
       <c r="AL54" s="36"/>
       <c r="AM54" s="36"/>
     </row>
-    <row r="55" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="57"/>
       <c r="B55" s="57"/>
       <c r="C55" s="44"/>
@@ -16319,7 +16327,7 @@
       <c r="AL55" s="58"/>
       <c r="AM55" s="58"/>
     </row>
-    <row r="56" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35"/>
       <c r="B56" s="31"/>
       <c r="C56" s="37"/>
@@ -16390,7 +16398,7 @@
       <c r="AL56" s="36"/>
       <c r="AM56" s="36"/>
     </row>
-    <row r="57" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="57"/>
       <c r="B57" s="57"/>
       <c r="C57" s="44"/>
@@ -16461,7 +16469,7 @@
       <c r="AL57" s="58"/>
       <c r="AM57" s="58"/>
     </row>
-    <row r="58" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="35"/>
       <c r="B58" s="31"/>
       <c r="C58" s="37"/>
@@ -16532,7 +16540,7 @@
       <c r="AL58" s="36"/>
       <c r="AM58" s="36"/>
     </row>
-    <row r="59" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="57"/>
       <c r="B59" s="57"/>
       <c r="C59" s="44"/>
@@ -16603,7 +16611,7 @@
       <c r="AL59" s="58"/>
       <c r="AM59" s="58"/>
     </row>
-    <row r="60" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="35"/>
       <c r="B60" s="31"/>
       <c r="C60" s="37"/>
@@ -16674,7 +16682,7 @@
       <c r="AL60" s="36"/>
       <c r="AM60" s="36"/>
     </row>
-    <row r="61" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="57"/>
       <c r="B61" s="57"/>
       <c r="C61" s="44"/>
@@ -16745,7 +16753,7 @@
       <c r="AL61" s="58"/>
       <c r="AM61" s="58"/>
     </row>
-    <row r="62" spans="1:39" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="62" spans="1:39" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="C2:E25" name="区域1_2" securityDescriptor=""/>
@@ -16802,14 +16810,14 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="49.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -16853,7 +16861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
@@ -16980,14 +16988,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -17001,7 +17009,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -17015,7 +17023,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -17029,7 +17037,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -17043,7 +17051,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -17057,7 +17065,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -17071,7 +17079,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -17085,7 +17093,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -17099,7 +17107,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -17113,7 +17121,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -17127,7 +17135,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -17141,7 +17149,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="66.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="66.400000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -17155,7 +17163,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="70">
         <v>12</v>
       </c>

--- a/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
+++ b/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a75fb4939bef0c74/桌面/2023秋硬件综合训练课设资料发布包/cpu21-riscv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OpalKim\Desktop\2023秋硬件综合训练课设资料发布包\cpu21-riscv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{28D0AF84-3A1B-4246-8BE7-C73B84408BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{747EEB16-0820-494E-AD93-220F65E31DEA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A887EEE8-3FB1-478F-97AA-1256EDF9228A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3876" yWindow="1308" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="控制信号表达式生成" sheetId="2" r:id="rId1"/>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="129">
   <si>
     <t>#</t>
   </si>
@@ -1156,6 +1156,10 @@
   </si>
   <si>
     <t>U_Type</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -2345,27 +2349,27 @@
   </sheetPr>
   <dimension ref="A1:AX63"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI58" sqref="AI58"/>
+      <selection pane="bottomLeft" activeCell="Y58" sqref="Y58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="18" customWidth="1"/>
-    <col min="2" max="3" width="9.5" style="18" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="18" customWidth="1"/>
-    <col min="5" max="7" width="4.5" style="18" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="4.25" style="18" hidden="1" customWidth="1"/>
-    <col min="9" max="14" width="4.5" style="18" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5" style="18" customWidth="1"/>
-    <col min="16" max="19" width="4.5" style="18" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="18" customWidth="1"/>
+    <col min="2" max="3" width="9.44140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="18" customWidth="1"/>
+    <col min="5" max="7" width="4.44140625" style="18" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="4.21875" style="18" hidden="1" customWidth="1"/>
+    <col min="9" max="14" width="4.44140625" style="18" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" style="18" customWidth="1"/>
+    <col min="16" max="19" width="4.44140625" style="18" customWidth="1"/>
     <col min="20" max="22" width="9" customWidth="1"/>
     <col min="32" max="35" width="9" style="19" customWidth="1"/>
     <col min="36" max="42" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
@@ -2491,9 +2495,9 @@
         <f>真值表!AF1</f>
         <v>U_Type</v>
       </c>
-      <c r="AF1" s="25">
+      <c r="AF1" s="25" t="str">
         <f>真值表!AG1</f>
-        <v>0</v>
+        <v>SH</v>
       </c>
       <c r="AG1" s="25" t="str">
         <f>真值表!AH1</f>
@@ -2520,7 +2524,7 @@
         <v>XXX</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A2" s="31" t="str">
         <f>IF(ISBLANK(真值表!B2),"",真值表!B2)</f>
         <v>add</v>
@@ -2674,7 +2678,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A3" s="50" t="str">
         <f>IF(ISBLANK(真值表!B3),"",真值表!B3)</f>
         <v>sub</v>
@@ -2828,7 +2832,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A4" s="31" t="str">
         <f>IF(ISBLANK(真值表!B4),"",真值表!B4)</f>
         <v>and</v>
@@ -2982,7 +2986,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A5" s="50" t="str">
         <f>IF(ISBLANK(真值表!B5),"",真值表!B5)</f>
         <v>or</v>
@@ -3136,7 +3140,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A6" s="31" t="str">
         <f>IF(ISBLANK(真值表!B6),"",真值表!B6)</f>
         <v>slt</v>
@@ -3290,7 +3294,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A7" s="50" t="str">
         <f>IF(ISBLANK(真值表!B7),"",真值表!B7)</f>
         <v>sltu</v>
@@ -3444,7 +3448,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A8" s="31" t="str">
         <f>IF(ISBLANK(真值表!B8),"",真值表!B8)</f>
         <v>addi</v>
@@ -3598,7 +3602,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A9" s="50" t="str">
         <f>IF(ISBLANK(真值表!B9),"",真值表!B9)</f>
         <v>andi</v>
@@ -3752,7 +3756,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A10" s="31" t="str">
         <f>IF(ISBLANK(真值表!B10),"",真值表!B10)</f>
         <v>ori</v>
@@ -3906,7 +3910,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A11" s="50" t="str">
         <f>IF(ISBLANK(真值表!B11),"",真值表!B11)</f>
         <v>xori</v>
@@ -4060,7 +4064,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A12" s="31" t="str">
         <f>IF(ISBLANK(真值表!B12),"",真值表!B12)</f>
         <v>slti</v>
@@ -4214,7 +4218,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A13" s="50" t="str">
         <f>IF(ISBLANK(真值表!B13),"",真值表!B13)</f>
         <v>slli</v>
@@ -4368,7 +4372,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A14" s="31" t="str">
         <f>IF(ISBLANK(真值表!B14),"",真值表!B14)</f>
         <v>srli</v>
@@ -4522,7 +4526,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A15" s="50" t="str">
         <f>IF(ISBLANK(真值表!B15),"",真值表!B15)</f>
         <v>srai</v>
@@ -4676,7 +4680,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A16" s="31" t="str">
         <f>IF(ISBLANK(真值表!B16),"",真值表!B16)</f>
         <v>lw</v>
@@ -4830,7 +4834,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A17" s="50" t="str">
         <f>IF(ISBLANK(真值表!B17),"",真值表!B17)</f>
         <v>sw</v>
@@ -4984,7 +4988,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A18" s="31" t="str">
         <f>IF(ISBLANK(真值表!B18),"",真值表!B18)</f>
         <v>ecall</v>
@@ -5138,7 +5142,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A19" s="50" t="str">
         <f>IF(ISBLANK(真值表!B19),"",真值表!B19)</f>
         <v>beq</v>
@@ -5292,7 +5296,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A20" s="31" t="str">
         <f>IF(ISBLANK(真值表!B20),"",真值表!B20)</f>
         <v>bne</v>
@@ -5446,7 +5450,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A21" s="50" t="str">
         <f>IF(ISBLANK(真值表!B21),"",真值表!B21)</f>
         <v>jal</v>
@@ -5600,7 +5604,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A22" s="31" t="str">
         <f>IF(ISBLANK(真值表!B22),"",真值表!B22)</f>
         <v>jalr</v>
@@ -5754,7 +5758,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A23" s="50" t="str">
         <f>IF(ISBLANK(真值表!B23),"",真值表!B23)</f>
         <v>CSRRSI</v>
@@ -5908,7 +5912,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A24" s="31" t="str">
         <f>IF(ISBLANK(真值表!B24),"",真值表!B24)</f>
         <v>CSRRCI</v>
@@ -6062,7 +6066,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A25" s="50" t="str">
         <f>IF(ISBLANK(真值表!B25),"",真值表!B25)</f>
         <v>URET</v>
@@ -6216,7 +6220,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A26" s="31" t="str">
         <f>IF(ISBLANK(真值表!B26),"",真值表!B26)</f>
         <v>SRL</v>
@@ -6370,7 +6374,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A27" s="50" t="str">
         <f>IF(ISBLANK(真值表!B27),"",真值表!B27)</f>
         <v>LUI</v>
@@ -6524,7 +6528,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A28" s="31" t="str">
         <f>IF(ISBLANK(真值表!B28),"",真值表!B28)</f>
         <v>SH</v>
@@ -6623,7 +6627,7 @@
       </c>
       <c r="Y28" s="24" t="str">
         <f>IF(真值表!Z28=1,$O28&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Z28" s="24" t="str">
         <f>IF(真值表!AA28=1,$O28&amp;"+","")</f>
@@ -6651,7 +6655,7 @@
       </c>
       <c r="AF28" s="24" t="str">
         <f>IF(真值表!AG28=1,$O28&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AG28" s="24" t="str">
         <f>IF(真值表!AH28=1,$O28&amp;"+","")</f>
@@ -6678,7 +6682,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A29" s="50" t="str">
         <f>IF(ISBLANK(真值表!B29),"",真值表!B29)</f>
         <v>BLTU</v>
@@ -6832,7 +6836,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A30" s="31" t="str">
         <f>IF(ISBLANK(真值表!B30),"",真值表!B30)</f>
         <v/>
@@ -6986,7 +6990,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A31" s="50" t="str">
         <f>IF(ISBLANK(真值表!B31),"",真值表!B31)</f>
         <v/>
@@ -7140,7 +7144,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A32" s="31" t="str">
         <f>IF(ISBLANK(真值表!B32),"",真值表!B32)</f>
         <v/>
@@ -7294,7 +7298,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="50" t="str">
         <f>IF(ISBLANK(真值表!B33),"",真值表!B33)</f>
         <v/>
@@ -7448,7 +7452,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="31" t="str">
         <f>IF(ISBLANK(真值表!B34),"",真值表!B34)</f>
         <v/>
@@ -7602,7 +7606,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="50" t="str">
         <f>IF(ISBLANK(真值表!B35),"",真值表!B35)</f>
         <v/>
@@ -7756,7 +7760,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="31" t="str">
         <f>IF(ISBLANK(真值表!B36),"",真值表!B36)</f>
         <v/>
@@ -7910,7 +7914,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="50" t="str">
         <f>IF(ISBLANK(真值表!B37),"",真值表!B37)</f>
         <v/>
@@ -8064,7 +8068,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="31" t="str">
         <f>IF(ISBLANK(真值表!B38),"",真值表!B38)</f>
         <v/>
@@ -8218,7 +8222,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="50" t="str">
         <f>IF(ISBLANK(真值表!B39),"",真值表!B39)</f>
         <v/>
@@ -8372,7 +8376,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="31" t="str">
         <f>IF(ISBLANK(真值表!B40),"",真值表!B40)</f>
         <v/>
@@ -8526,7 +8530,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="50" t="str">
         <f>IF(ISBLANK(真值表!B41),"",真值表!B41)</f>
         <v/>
@@ -8680,7 +8684,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="31" t="str">
         <f>IF(ISBLANK(真值表!B42),"",真值表!B42)</f>
         <v/>
@@ -8834,7 +8838,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="50" t="str">
         <f>IF(ISBLANK(真值表!B43),"",真值表!B43)</f>
         <v/>
@@ -8988,7 +8992,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="31" t="str">
         <f>IF(ISBLANK(真值表!B44),"",真值表!B44)</f>
         <v/>
@@ -9142,7 +9146,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="50" t="str">
         <f>IF(ISBLANK(真值表!B45),"",真值表!B45)</f>
         <v/>
@@ -9296,7 +9300,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" s="31" t="str">
         <f>IF(ISBLANK(真值表!B46),"",真值表!B46)</f>
         <v/>
@@ -9450,7 +9454,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="50" t="str">
         <f>IF(ISBLANK(真值表!B47),"",真值表!B47)</f>
         <v/>
@@ -9604,7 +9608,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="31" t="str">
         <f>IF(ISBLANK(真值表!B48),"",真值表!B48)</f>
         <v/>
@@ -9758,7 +9762,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="50" t="str">
         <f>IF(ISBLANK(真值表!B49),"",真值表!B49)</f>
         <v/>
@@ -9912,7 +9916,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="31" t="str">
         <f>IF(ISBLANK(真值表!B50),"",真值表!B50)</f>
         <v/>
@@ -10066,7 +10070,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="50" t="str">
         <f>IF(ISBLANK(真值表!B51),"",真值表!B51)</f>
         <v/>
@@ -10220,7 +10224,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="31" t="str">
         <f>IF(ISBLANK(真值表!B52),"",真值表!B52)</f>
         <v/>
@@ -10374,7 +10378,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" s="50" t="str">
         <f>IF(ISBLANK(真值表!B53),"",真值表!B53)</f>
         <v/>
@@ -10528,7 +10532,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="31" t="str">
         <f>IF(ISBLANK(真值表!B54),"",真值表!B54)</f>
         <v/>
@@ -10682,7 +10686,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" s="50" t="str">
         <f>IF(ISBLANK(真值表!B55),"",真值表!B55)</f>
         <v/>
@@ -10836,7 +10840,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" s="31" t="str">
         <f>IF(ISBLANK(真值表!B56),"",真值表!B56)</f>
         <v/>
@@ -10990,7 +10994,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="50" t="str">
         <f>IF(ISBLANK(真值表!B57),"",真值表!B57)</f>
         <v/>
@@ -11144,7 +11148,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:50" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A58" s="71" t="s">
         <v>81</v>
       </c>
@@ -11200,7 +11204,7 @@
       </c>
       <c r="Y58" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="Z58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -11228,7 +11232,7 @@
       </c>
       <c r="AF58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="AG58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -11255,7 +11259,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
       <c r="P59" t="str">
         <f>CONCATENATE(P2,P3,P4,P5,P6,P7,P8,P9,P10,P11,P12,P13,P14,P15,P16,P17,P18,P19,P20,P21,P22,P23,P24,P25,P26,P27,P28,P29,P30,P31,P32,P33,P34,P35,P36,P37,P38,P39,P40,P41,P42,P43,P44,P45,P46,P47,P48,P49,P50,P51,P52,P53,P54,P55,P56,P57,
 )</f>
@@ -11300,7 +11304,7 @@
       </c>
       <c r="Y59" t="str">
         <f t="shared" si="3"/>
-        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Z59" t="str">
         <f t="shared" si="3"/>
@@ -11328,7 +11332,7 @@
       </c>
       <c r="AF59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AG59" t="str">
         <f t="shared" si="3"/>
@@ -11403,7 +11407,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:50" ht="16.2" x14ac:dyDescent="0.4">
       <c r="P61" s="74" t="s">
         <v>61</v>
       </c>
@@ -11423,7 +11427,7 @@
       <c r="AD61" s="18"/>
       <c r="AE61" s="18"/>
     </row>
-    <row r="63" spans="1:50" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:50" ht="16.2" x14ac:dyDescent="0.25">
       <c r="Q63" s="34" t="s">
         <v>109</v>
       </c>
@@ -11482,30 +11486,30 @@
   </sheetPr>
   <dimension ref="A1:AN62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK3" sqref="AK3"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
-    <col min="3" max="4" width="10.5" style="26" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="26" customWidth="1"/>
-    <col min="6" max="15" width="4.5" style="26" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.75" style="26" customWidth="1"/>
-    <col min="17" max="20" width="3.5" style="26" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="10.125" style="26" customWidth="1"/>
-    <col min="22" max="22" width="9.125" style="26" customWidth="1"/>
-    <col min="23" max="23" width="10.5" style="26" customWidth="1"/>
-    <col min="24" max="24" width="9.5" style="26" customWidth="1"/>
-    <col min="25" max="26" width="9.125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="18" customWidth="1"/>
+    <col min="3" max="4" width="10.44140625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="26" customWidth="1"/>
+    <col min="6" max="15" width="4.44140625" style="26" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.77734375" style="26" customWidth="1"/>
+    <col min="17" max="20" width="3.44140625" style="26" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="10.109375" style="26" customWidth="1"/>
+    <col min="22" max="22" width="9.109375" style="26" customWidth="1"/>
+    <col min="23" max="23" width="10.44140625" style="26" customWidth="1"/>
+    <col min="24" max="24" width="9.44140625" style="26" customWidth="1"/>
+    <col min="25" max="26" width="9.109375" style="26" customWidth="1"/>
     <col min="27" max="30" width="9" style="26" customWidth="1"/>
     <col min="31" max="32" width="9" style="27" customWidth="1"/>
     <col min="33" max="39" width="9" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="17" customFormat="1" ht="24.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="17" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -11600,7 +11604,9 @@
       <c r="AF1" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="AG1" s="25"/>
+      <c r="AG1" s="25" t="s">
+        <v>128</v>
+      </c>
       <c r="AH1" s="25" t="s">
         <v>114</v>
       </c>
@@ -11623,7 +11629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A2" s="35">
         <v>1</v>
       </c>
@@ -11724,7 +11730,7 @@
       <c r="AL2" s="36"/>
       <c r="AM2" s="36"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A3" s="57">
         <v>2</v>
       </c>
@@ -11825,7 +11831,7 @@
       <c r="AL3" s="58"/>
       <c r="AM3" s="58"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A4" s="35">
         <v>3</v>
       </c>
@@ -11926,7 +11932,7 @@
       <c r="AL4" s="36"/>
       <c r="AM4" s="36"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A5" s="57">
         <v>4</v>
       </c>
@@ -12027,7 +12033,7 @@
       <c r="AL5" s="58"/>
       <c r="AM5" s="58"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A6" s="35">
         <v>5</v>
       </c>
@@ -12128,7 +12134,7 @@
       <c r="AL6" s="36"/>
       <c r="AM6" s="36"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A7" s="57">
         <v>6</v>
       </c>
@@ -12229,7 +12235,7 @@
       <c r="AL7" s="58"/>
       <c r="AM7" s="58"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A8" s="35">
         <v>7</v>
       </c>
@@ -12328,7 +12334,7 @@
       <c r="AL8" s="36"/>
       <c r="AM8" s="36"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A9" s="57">
         <v>8</v>
       </c>
@@ -12427,7 +12433,7 @@
       <c r="AL9" s="58"/>
       <c r="AM9" s="58"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A10" s="35">
         <v>9</v>
       </c>
@@ -12526,7 +12532,7 @@
       <c r="AL10" s="36"/>
       <c r="AM10" s="36"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A11" s="57">
         <v>10</v>
       </c>
@@ -12625,7 +12631,7 @@
       <c r="AL11" s="58"/>
       <c r="AM11" s="58"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A12" s="35">
         <v>11</v>
       </c>
@@ -12724,7 +12730,7 @@
       <c r="AL12" s="36"/>
       <c r="AM12" s="36"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A13" s="57">
         <v>12</v>
       </c>
@@ -12825,7 +12831,7 @@
       <c r="AL13" s="58"/>
       <c r="AM13" s="58"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A14" s="35">
         <v>13</v>
       </c>
@@ -12926,7 +12932,7 @@
       <c r="AL14" s="36"/>
       <c r="AM14" s="36"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A15" s="57">
         <v>14</v>
       </c>
@@ -13027,7 +13033,7 @@
       <c r="AL15" s="58"/>
       <c r="AM15" s="58"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A16" s="35">
         <v>15</v>
       </c>
@@ -13128,7 +13134,7 @@
       <c r="AL16" s="36"/>
       <c r="AM16" s="36"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A17" s="57">
         <v>16</v>
       </c>
@@ -13231,7 +13237,7 @@
       <c r="AL17" s="58"/>
       <c r="AM17" s="58"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A18" s="35">
         <v>17</v>
       </c>
@@ -13330,7 +13336,7 @@
       <c r="AL18" s="36"/>
       <c r="AM18" s="36"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A19" s="57">
         <v>18</v>
       </c>
@@ -13429,7 +13435,7 @@
       <c r="AL19" s="58"/>
       <c r="AM19" s="58"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A20" s="35">
         <v>19</v>
       </c>
@@ -13530,7 +13536,7 @@
       <c r="AL20" s="36"/>
       <c r="AM20" s="36"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A21" s="57">
         <v>20</v>
       </c>
@@ -13623,7 +13629,7 @@
       <c r="AL21" s="58"/>
       <c r="AM21" s="58"/>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A22" s="35">
         <v>21</v>
       </c>
@@ -13724,7 +13730,7 @@
       <c r="AL22" s="36"/>
       <c r="AM22" s="36"/>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A23" s="57">
         <v>22</v>
       </c>
@@ -13815,7 +13821,7 @@
       <c r="AL23" s="58"/>
       <c r="AM23" s="58"/>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A24" s="35">
         <v>23</v>
       </c>
@@ -13906,7 +13912,7 @@
       <c r="AL24" s="36"/>
       <c r="AM24" s="36"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A25" s="57">
         <v>24</v>
       </c>
@@ -13999,7 +14005,7 @@
       <c r="AL25" s="58"/>
       <c r="AM25" s="58"/>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A26" s="35">
         <v>25</v>
       </c>
@@ -14100,7 +14106,7 @@
       <c r="AL26" s="36"/>
       <c r="AM26" s="36"/>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A27" s="57">
         <v>26</v>
       </c>
@@ -14197,7 +14203,7 @@
       <c r="AL27" s="58"/>
       <c r="AM27" s="58"/>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A28" s="35">
         <v>27</v>
       </c>
@@ -14279,14 +14285,18 @@
       </c>
       <c r="X28" s="31"/>
       <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
+      <c r="Z28" s="31">
+        <v>1</v>
+      </c>
       <c r="AA28" s="31"/>
       <c r="AB28" s="31"/>
       <c r="AC28" s="31"/>
       <c r="AD28" s="31"/>
       <c r="AE28" s="31"/>
       <c r="AF28" s="31"/>
-      <c r="AG28" s="36"/>
+      <c r="AG28" s="36">
+        <v>1</v>
+      </c>
       <c r="AH28" s="36"/>
       <c r="AI28" s="36">
         <v>1</v>
@@ -14298,7 +14308,7 @@
       <c r="AL28" s="36"/>
       <c r="AM28" s="36"/>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A29" s="57">
         <v>28</v>
       </c>
@@ -14397,7 +14407,7 @@
       <c r="AL29" s="58"/>
       <c r="AM29" s="58"/>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A30" s="35">
         <v>29</v>
       </c>
@@ -14482,7 +14492,7 @@
       <c r="AL30" s="36"/>
       <c r="AM30" s="36"/>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A31" s="57">
         <v>30</v>
       </c>
@@ -14567,7 +14577,7 @@
       <c r="AL31" s="58"/>
       <c r="AM31" s="58"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A32" s="35">
         <v>31</v>
       </c>
@@ -14652,7 +14662,7 @@
       <c r="AL32" s="36"/>
       <c r="AM32" s="36"/>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A33" s="57">
         <v>32</v>
       </c>
@@ -14737,7 +14747,7 @@
       <c r="AL33" s="58"/>
       <c r="AM33" s="58"/>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A34" s="35">
         <v>33</v>
       </c>
@@ -14822,7 +14832,7 @@
       <c r="AL34" s="36"/>
       <c r="AM34" s="36"/>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A35" s="57">
         <v>34</v>
       </c>
@@ -14907,7 +14917,7 @@
       <c r="AL35" s="58"/>
       <c r="AM35" s="58"/>
     </row>
-    <row r="36" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="35"/>
       <c r="B36" s="31"/>
       <c r="C36" s="37"/>
@@ -14978,7 +14988,7 @@
       <c r="AL36" s="36"/>
       <c r="AM36" s="36"/>
     </row>
-    <row r="37" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="57"/>
       <c r="B37" s="57"/>
       <c r="C37" s="44"/>
@@ -15049,7 +15059,7 @@
       <c r="AL37" s="58"/>
       <c r="AM37" s="58"/>
     </row>
-    <row r="38" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="35"/>
       <c r="B38" s="31"/>
       <c r="C38" s="37"/>
@@ -15120,7 +15130,7 @@
       <c r="AL38" s="36"/>
       <c r="AM38" s="36"/>
     </row>
-    <row r="39" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="57"/>
       <c r="B39" s="57"/>
       <c r="C39" s="44"/>
@@ -15191,7 +15201,7 @@
       <c r="AL39" s="58"/>
       <c r="AM39" s="58"/>
     </row>
-    <row r="40" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="35"/>
       <c r="B40" s="31"/>
       <c r="C40" s="37"/>
@@ -15262,7 +15272,7 @@
       <c r="AL40" s="36"/>
       <c r="AM40" s="36"/>
     </row>
-    <row r="41" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="57"/>
       <c r="B41" s="57"/>
       <c r="C41" s="44"/>
@@ -15333,7 +15343,7 @@
       <c r="AL41" s="58"/>
       <c r="AM41" s="58"/>
     </row>
-    <row r="42" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="35"/>
       <c r="B42" s="31"/>
       <c r="C42" s="37"/>
@@ -15404,7 +15414,7 @@
       <c r="AL42" s="36"/>
       <c r="AM42" s="36"/>
     </row>
-    <row r="43" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="57"/>
       <c r="B43" s="57"/>
       <c r="C43" s="44"/>
@@ -15475,7 +15485,7 @@
       <c r="AL43" s="58"/>
       <c r="AM43" s="58"/>
     </row>
-    <row r="44" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="35"/>
       <c r="B44" s="31"/>
       <c r="C44" s="37"/>
@@ -15546,7 +15556,7 @@
       <c r="AL44" s="36"/>
       <c r="AM44" s="36"/>
     </row>
-    <row r="45" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="57"/>
       <c r="B45" s="57"/>
       <c r="C45" s="44"/>
@@ -15617,7 +15627,7 @@
       <c r="AL45" s="58"/>
       <c r="AM45" s="58"/>
     </row>
-    <row r="46" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" s="35"/>
       <c r="B46" s="31"/>
       <c r="C46" s="37"/>
@@ -15688,7 +15698,7 @@
       <c r="AL46" s="36"/>
       <c r="AM46" s="36"/>
     </row>
-    <row r="47" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="57"/>
       <c r="B47" s="57"/>
       <c r="C47" s="44"/>
@@ -15759,7 +15769,7 @@
       <c r="AL47" s="58"/>
       <c r="AM47" s="58"/>
     </row>
-    <row r="48" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="35"/>
       <c r="B48" s="31"/>
       <c r="C48" s="37"/>
@@ -15830,7 +15840,7 @@
       <c r="AL48" s="36"/>
       <c r="AM48" s="36"/>
     </row>
-    <row r="49" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="57"/>
       <c r="B49" s="57"/>
       <c r="C49" s="44"/>
@@ -15901,7 +15911,7 @@
       <c r="AL49" s="58"/>
       <c r="AM49" s="58"/>
     </row>
-    <row r="50" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="35"/>
       <c r="B50" s="31"/>
       <c r="C50" s="37"/>
@@ -15972,7 +15982,7 @@
       <c r="AL50" s="36"/>
       <c r="AM50" s="36"/>
     </row>
-    <row r="51" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="57"/>
       <c r="B51" s="57"/>
       <c r="C51" s="44"/>
@@ -16043,7 +16053,7 @@
       <c r="AL51" s="58"/>
       <c r="AM51" s="58"/>
     </row>
-    <row r="52" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="35"/>
       <c r="B52" s="31"/>
       <c r="C52" s="37"/>
@@ -16114,7 +16124,7 @@
       <c r="AL52" s="36"/>
       <c r="AM52" s="36"/>
     </row>
-    <row r="53" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" s="57"/>
       <c r="B53" s="57"/>
       <c r="C53" s="44"/>
@@ -16185,7 +16195,7 @@
       <c r="AL53" s="58"/>
       <c r="AM53" s="58"/>
     </row>
-    <row r="54" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="35"/>
       <c r="B54" s="31"/>
       <c r="C54" s="37"/>
@@ -16256,7 +16266,7 @@
       <c r="AL54" s="36"/>
       <c r="AM54" s="36"/>
     </row>
-    <row r="55" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" s="57"/>
       <c r="B55" s="57"/>
       <c r="C55" s="44"/>
@@ -16327,7 +16337,7 @@
       <c r="AL55" s="58"/>
       <c r="AM55" s="58"/>
     </row>
-    <row r="56" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" s="35"/>
       <c r="B56" s="31"/>
       <c r="C56" s="37"/>
@@ -16398,7 +16408,7 @@
       <c r="AL56" s="36"/>
       <c r="AM56" s="36"/>
     </row>
-    <row r="57" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="57"/>
       <c r="B57" s="57"/>
       <c r="C57" s="44"/>
@@ -16469,7 +16479,7 @@
       <c r="AL57" s="58"/>
       <c r="AM57" s="58"/>
     </row>
-    <row r="58" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="35"/>
       <c r="B58" s="31"/>
       <c r="C58" s="37"/>
@@ -16540,7 +16550,7 @@
       <c r="AL58" s="36"/>
       <c r="AM58" s="36"/>
     </row>
-    <row r="59" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" s="57"/>
       <c r="B59" s="57"/>
       <c r="C59" s="44"/>
@@ -16611,7 +16621,7 @@
       <c r="AL59" s="58"/>
       <c r="AM59" s="58"/>
     </row>
-    <row r="60" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" s="35"/>
       <c r="B60" s="31"/>
       <c r="C60" s="37"/>
@@ -16682,7 +16692,7 @@
       <c r="AL60" s="36"/>
       <c r="AM60" s="36"/>
     </row>
-    <row r="61" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:39" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" s="57"/>
       <c r="B61" s="57"/>
       <c r="C61" s="44"/>
@@ -16753,7 +16763,7 @@
       <c r="AL61" s="58"/>
       <c r="AM61" s="58"/>
     </row>
-    <row r="62" spans="1:39" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:39" hidden="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="C2:E25" name="区域1_2" securityDescriptor=""/>
@@ -16810,14 +16820,14 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="49.5" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -16861,7 +16871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
@@ -16988,14 +16998,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -17009,7 +17019,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -17023,7 +17033,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -17037,7 +17047,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -17051,7 +17061,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -17065,7 +17075,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -17079,7 +17089,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -17093,7 +17103,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -17107,7 +17117,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -17121,7 +17131,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -17135,7 +17145,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -17149,7 +17159,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="66.400000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="66.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -17163,7 +17173,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="70">
         <v>12</v>
       </c>
